--- a/biology/Botanique/Jouvea/Jouvea.xlsx
+++ b/biology/Botanique/Jouvea/Jouvea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Jouvea est un genre de plantes monocotylédones de la famille des Poaceae (graminées),  originaire d'Amérique.
 Le genre Jouvea comprend deux espèces acceptées. 
 Ce sont des plantes herbacées vivaces, stolonifères, dioïques, aux tiges prostrées de 30 à 40 cm de long, qui poussent dans les vasière et les dunes du littoral du nord du Mexique à l'Équateur.
 Étymologie
-le nom générique « Jouvea » est un hommage au botaniste français Joseph Duval-Jouve (1810–1883)[1].</t>
+le nom générique « Jouvea » est un hommage au botaniste français Joseph Duval-Jouve (1810–1883).</t>
         </is>
       </c>
     </row>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 juillet 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 juillet 2016) :
 Jouvea pilosa (J.Presl) Scribn. (1896)
 Jouvea straminea E.Fourn. (1876)</t>
         </is>
